--- a/_title/parse-page-result.xlsx
+++ b/_title/parse-page-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\langkung\fuelcycle\_title\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D874EF-7CDC-4088-971C-2EB2421E3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{026D649A-3FF6-4ACC-A53D-53EA1EAA9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="m" sheetId="1" r:id="rId1"/>
